--- a/Самообучение_#_$$_JavaScript_Front_заготовки 1.xlsx
+++ b/Самообучение_#_$$_JavaScript_Front_заготовки 1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A7322D-2FBC-48AC-8875-B616B77CBCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A9881-554E-49E9-BE0D-BDCA68EB38C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Radio button" sheetId="12" r:id="rId1"/>
-    <sheet name="Rating" sheetId="21" r:id="rId2"/>
-    <sheet name="Checkbox" sheetId="19" r:id="rId3"/>
-    <sheet name="Select" sheetId="20" r:id="rId4"/>
+    <sheet name="Библиотеки" sheetId="25" r:id="rId1"/>
+    <sheet name="Radio button" sheetId="12" r:id="rId2"/>
+    <sheet name="Rating" sheetId="21" r:id="rId3"/>
+    <sheet name="Checkbox" sheetId="19" r:id="rId4"/>
+    <sheet name="Select" sheetId="20" r:id="rId5"/>
+    <sheet name="Slider" sheetId="24" r:id="rId6"/>
+    <sheet name="Scroll" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -864,17 +867,1505 @@
   <si>
     <t xml:space="preserve">input type="radio" </t>
   </si>
+  <si>
+    <t xml:space="preserve">    &lt;script&gt;
+        const buttons = document.querySelectorAll(".rating_sign_input");
+        const form = document.querySelector(".form");
+        const comment = document.querySelector(". rating_comment");
+        buttons.forEach((radio) =&gt; {
+            radio.addEventListener('change', function () {
+                const checkedNumber =
+                    document.querySelector('.rating_sign_input:checked').value || undefined;
+                buttons.forEach((item) =&gt; {
+                    const currentLabel = item.previousElementSibling;
+                    if (item.value &lt;= checkedNumber) {
+                        currentLabel.classList.add("check");
+                    } else {
+                        currentLabel.classList.remove("check");
+                    }
+                });
+            });
+        });
+    &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;div class="rating_sign"&gt;
+                &lt;label class="rating_sign_label" for="3"&gt;&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;&lt;/label&gt;
+                &lt;input class="rating_sign_input" type="radio" name="rating" id="3" value="3"&gt;
+            &lt;/div&gt;
+            &lt;div class="rating_sign"&gt;
+                &lt;label class="rating_sign_label" for="4"&gt;&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;&lt;/label&gt;
+                &lt;input class="rating_sign_input" type="radio" name="rating" id="4" value="4"&gt;
+            &lt;/div&gt;
+            &lt;div class="rating_sign"&gt;
+                &lt;label class="rating_sign_label" for="5"&gt;&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;&lt;/label&gt;
+                &lt;input class="rating_sign_input" type="radio" name="rating" id="5" value="5"&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;script src="https://kit. fontawesome.com/a7ddde55e8.js" crossorigin="anonymous"&gt;&lt;/script&gt;
+    &lt;form action="#" class="form"&gt;
+        &lt;div class="rating"&gt;
+            &lt;div class="rating_sign"&gt;
+                &lt;label class="rating_sign_label" for="1"&gt;&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;&lt;/label&gt;
+                &lt;input class="rating_sign_input" type="radio" name="rating" id="1" value="1"&gt;
+            &lt;/div&gt;
+            &lt;div class="rating_sign"&gt;
+                &lt;label class="rating_sign_label" for="2"&gt;&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;&lt;/label&gt;
+                &lt;input class="rating_sign_input" type="radio" name="rating" id="2" value="2"&gt;
+            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Не хватает только css</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name ="propagation-control"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> позволяет связать логику двух кнопок в одной форме</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;form class="form1" action="#"&gt;
+        &lt;div&gt;
+            &lt;input id="radio1" name="1" type="radio" class="radio1"&gt;
+            &lt;label for="radio1"&gt;Чай&lt;/label&gt;
+        &lt;/div&gt;
+        &lt;div&gt;
+            &lt;input id="radio2" name="1" type="radio" class="radio2"&gt;
+            &lt;label for="radio2"&gt;Кофе&lt;/label&gt;
+        &lt;/div&gt;
+    &lt;/form&gt;
+    &lt;script src="script.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>const formEl = document.querySelector('.form1');
+const inputElTea = formEl.querySelector('.radio1');
+const inputElCoffee = formEl.querySelector('.radio2');
+const isDrinkAvailable = (event) =&gt; {
+    if (event.target.checked) console.log(`${event.target.nextElementSibling.textContent} закончился`);  
+};
+formEl.addEventListener('click', isDrinkAvailable);</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Такой подход к обозначению ветвления (без else) позволил исключить дублирования статуса Чай или Кофе закончился</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Работа со слайдером (перелистывателем) изображений</t>
+  </si>
+  <si>
+    <t>01 06 00</t>
+  </si>
+  <si>
+    <t>window.setInterval();</t>
+  </si>
+  <si>
+    <t>2000 мс - это время в миллисекундах, через которое должно произойти какое-то событие на экране браузера</t>
+  </si>
+  <si>
+    <t>window.setInterval(() =&gt; {
+  slider.nextSlide();
+}, 2000);</t>
+  </si>
+  <si>
+    <t>01 49 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;link rel="stylesheet" href="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://use.fontawesome.com/releases/v5.5.0/css/all.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" integrity="sha384-B4dIYHKNBt8Bc12p+WXckhzcICo0wtJAoU8YZTY5qE0Id1GSseTk6S+L3BlXeVIU" crossorigin="anonymous"&gt;
+  &lt;link rel="stylesheet" href="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slider/slider.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+  &lt;link rel="stylesheet" href="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div class="slider" data-width="720px" data-height="480px"&gt;
+  &lt;div class="slider-item hidden-slide"&gt;
+    &lt;img src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" alt=""&gt;
+  &lt;/div&gt;
+  &lt;div class="slider-item hidden-slide"&gt;
+    &lt;img src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" alt=""&gt;
+  &lt;/div&gt;
+  &lt;div class="slider-item hidden-slide"&gt;
+    &lt;img src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" alt=""&gt;
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slider/slider.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;
+&lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;
+&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 7 часть 1</t>
+  </si>
+  <si>
+    <t>Библиотеки</t>
+  </si>
+  <si>
+    <t>`https://youtu.be/fGTG-mrGpFY</t>
+  </si>
+  <si>
+    <t>Модальные окна</t>
+  </si>
+  <si>
+    <t>https://sweetalert2.github.io/</t>
+  </si>
+  <si>
+    <t>00 18 40</t>
+  </si>
+  <si>
+    <t>Адаптивное меню</t>
+  </si>
+  <si>
+    <t>https://mmenujs.com/</t>
+  </si>
+  <si>
+    <t>00 26 00</t>
+  </si>
+  <si>
+    <t>Презентер</t>
+  </si>
+  <si>
+    <t>https://alvarotrigo.com/fullPage/</t>
+  </si>
+  <si>
+    <t>00 31 10</t>
+  </si>
+  <si>
+    <t>Параллакс</t>
+  </si>
+  <si>
+    <t>Паралла́кс (греч. παράλλαξις, от παραλλαγή, «смена, чередование») — изменение видимого положения объекта относительно удалённого фона</t>
+  </si>
+  <si>
+    <t>﻿Библиотека
+https://github.com/wagerfield/parallax
+Этот пример
+https://www.youtube.com/watch?v=LMygHD-rnbA
+https://github.com/TheDesignMedium/planets-animated-website
+Где можно взять картинки
+https://www.freepik.com/</t>
+  </si>
+  <si>
+    <t>00 33 00</t>
+  </si>
+  <si>
+    <t>Галлерея</t>
+  </si>
+  <si>
+    <t>https://sachinchoolur.github.io/lightgallery.js/</t>
+  </si>
+  <si>
+    <t>00 40 30</t>
+  </si>
+  <si>
+    <t>Прилипающий nav-bar</t>
+  </si>
+  <si>
+    <t>https://github.com/WickyNilliams/headroom.js</t>
+  </si>
+  <si>
+    <t>00 46 00</t>
+  </si>
+  <si>
+    <t>Cropper изображений</t>
+  </si>
+  <si>
+    <t>https://github.com/fengyuanchen/cropperjs</t>
+  </si>
+  <si>
+    <t>00 48 30</t>
+  </si>
+  <si>
+    <t>Выбор дат</t>
+  </si>
+  <si>
+    <t>https://github.com/mymth/vanillajs-datepicker#readme</t>
+  </si>
+  <si>
+    <t>00 53 45</t>
+  </si>
+  <si>
+    <t>slider/slider.js</t>
+  </si>
+  <si>
+    <t>slider/slider.css</t>
+  </si>
+  <si>
+    <t>main.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function Slider(selector, width, height) { //
+  this.sliderEl = document.querySelector(selector); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//устанавливаем поле-переменную значения Элемента по селектору</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  this.sliderWidth = width ?? 720; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Всегда 720; устанавливаем поле-переменную значения ширины</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  this.sliderHeight = height ?? 480; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Всегда 480; устанавливаем поле-переменную значения высоты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  if (!this.sliderEl) {
+    throw new TypeError(`Wrong slider selector`);
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Slider.prototype.init = function () {
+  // Ставим слайдеру нужный размер.
+  this.sliderEl.style.width = this.sliderWidth; //устанавливаем Элементу стиль ширины
+  this.sliderEl.style.height = this.sliderHeight; //устанавливаем Элементу стиль высоты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // Создаем иконку загрузки
+  this.loadIcon = document.createElement('i'); 
+  this.loadIcon.classList.add('fas', 'fa-spinner', 'fa-spin');
+  this.sliderEl.prepend(this.loadIcon);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // Создаем левую стрелку
+  this.leftArrow = document.createElement('i'); //создали тэг italic, так как он строчный, а не блочный
+  this.leftArrow.classList.add('fas', 'fa-chevron-circle-left', 'slider-leftArrow');
+  this.sliderEl.append(this.leftArrow);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // Создаем правую стрелку
+  this.rightArrow = document.createElement('i');
+  this.rightArrow.classList.add('fas', 'fa-chevron-circle-right', 'slider-rightArrow');
+  this.sliderEl.append(this.rightArrow);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  this.slides = document.querySelectorAll('.slider-item');
+  this.slideIdx = 0;
+  // Ждем когда загрузится весь контент
+  window.addEventListener('load', () =&gt; {
+    // Добавляем обработчик для левой стрелки
+    this.leftArrow.addEventListener('click', () =&gt; {
+      this.setNextLeftImage();
+    });
+    // Добавляем обработчик для правой стрелки
+    this.rightArrow.addEventListener('click', () =&gt; {
+      this.setNextRightImage();
+    });
+    // Показываем первый слайд
+    this.slides[this.slideIdx].classList.remove('hidden-slide');
+    // Удаляем спинер загрузки
+    this.loadIcon.remove();
+  });
+};</t>
+  </si>
+  <si>
+    <t>Slider.prototype.setNextLeftImage = function () {
+  this.slides[this.slideIdx].classList.add("hidden-slide");
+  this.slideIdx = this.slideIdx === 0
+    ? this.slides.length - 1
+    : this.slideIdx - 1;
+  this.slides[this.slideIdx].classList.remove('hidden-slide');
+};</t>
+  </si>
+  <si>
+    <t>Slider.prototype.setNextRightImage = function () {
+  this.slides[this.slideIdx].classList.add("hidden-slide");
+  this.slideIdx = this.slideIdx === this.slides.length - 1 //без этой логики невозможно реализовать Loop перелистывание
+    ? 0
+    : this.slideIdx + 1;
+  this.slides[this.slideIdx].classList.remove('hidden-slide');
+};</t>
+  </si>
+  <si>
+    <t>const slider = new Slider('.slider');
+slider.init();</t>
+  </si>
+  <si>
+    <t>.slider {
+    height: 100vh;
+    position: relative;
+    overflow: hidden; /*убирает полосу прокрутки*/
+}
+.slider-item {
+    width: 100%;
+    height: 100%;
+    position: absolute;
+    left: 0;
+    top: 0;
+    z-index: 1;
+}
+.slider-item img {
+    width: 100%;
+    height: 100%;
+    display: block;
+    object-fit: cover;
+}
+.hidden-slide {
+    visibility: hidden;
+}
+.fas.fa-spinner.fa-spin {
+    font-size: 50px;
+    color: #bbbbbb;
+    position: absolute;
+    left: calc(50% - 25px);
+    top: calc(50% - 25px);
+}
+.slider-leftArrow, .slider-rightArrow {
+    position: absolute;
+    top: 47%;
+    z-index: 3;
+    color: #bbbbbb;
+    cursor: pointer;
+    font-size: 50px;
+}
+.slider-leftArrow {
+    left: 5%;
+}
+.slider-rightArrow {
+    right: 5%;
+}</t>
+  </si>
+  <si>
+    <t>body {
+    margin: 0;
+}</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <t>Работа со скроллом</t>
+  </si>
+  <si>
+    <t>Урок 14. Лекция.</t>
+  </si>
+  <si>
+    <t>Основы работы с API. Работа со скроллом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Element.scrollTop
+Element.scrollLeft</t>
+  </si>
+  <si>
+    <t>Когда контент элемента не создаёт полосу прокрутки, его scrollTop или
+scrollLeft равен нулю.
+Значения свойств Element.scrollTop и Element.scrollLeft могут быть любым целым числом, но с определёнными оговорками
+1. Если элемент не прокручивается, у него нет переполнения или мы не прокручиваем элемент, scrollTop (scrollLeft) устанавливается в 0.
+2. Если значение меньше нуля, scrollTop (scrollLeft) устанавливается в 0.
+3. Если установленное значение больше максимума прокручиваемого контента, scrollTop (scrollLeft) устанавливается в максимум.</t>
+  </si>
+  <si>
+    <t>const box = document.querySelector('#box')
+console.log(box.scrollTop, box.scrollLeft)
+// Устанавливаем количество прокрученных пикселей
+box.scrollTop = 500</t>
+  </si>
+  <si>
+    <t>JS код</t>
+  </si>
+  <si>
+    <t>Element.scrollHeight
+Element.scrollWidth</t>
+  </si>
+  <si>
+    <t>Свойства Element.scrollHeight и Element.scrollWidth (только чтение) содержат высоту и ширину содержимого элемента соответственно, включая содержимое, невидимое из-за прокрутки</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Только чтение</t>
+    </r>
+  </si>
+  <si>
+    <t>Если значение scrollHeight (scrollWidth) равно clientHeight (clientWidth),
+то всё содержимое элемента будет видно без появления полосы прокрутки.
+clientHeight (clientWidth) - это высота (ширина) элемента, в котором расположена видимая часть текста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Код, который определяет, прочитал пользователь текст или нет</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+&lt;input type="checkbox" id="agree" /&gt;
+&lt;label for="agree"&gt;Я согласен&lt;/label&gt;
+&lt;input type="submit" id="nextstep" value="Далее" /&gt;
+&lt;/p&gt;
+&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+const rulesElement = document.getElementById('rules')
+const agreeCheckbox = document.getElementById('agree')
+const nextStepButton = document.getElementById('nextstep')
+const {scrollHeight, scrollTop, clientHeight} = rulesElement
+let isRead = false
+const handleCheckReading = () =&gt; {
+if (isRead) {
+return
+}
+isRead = scrollHeight - scrollTop === clientHeight
+agreeCheckbox.disabled = nextStepButton.disabled = !isRead
+}
+rulesElement.addEventListener('scroll', handleCheckReading, false)
+&lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+&lt;style&gt;
+#notice {
+display: inline-block;
+margin-bottom: 12px;
+border-radius: 5px;
+width: 600px;
+padding: 5px;
+border: 2px #7FDF55 solid;
+}
+#rules {
+width: 600px;
+height: 130px;
+padding: 5px;
+border: #2A9F00 solid 2px;
+border-radius: 5px;
+}
+&lt;/style&gt;
+&lt;title&gt;Регистрация на сайте&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;
+&lt;form name="registration"&gt;
+&lt;p id="notice"&gt;Пожалуйста, прокрутите и прочитайте следующий текст.&lt;/p&gt;
+&lt;p&gt;
+&lt;textarea id="rules"&gt;
+Регистрируясь на сайте, я соглашаюсь со следующими условиями:
+Условие 1
+Условие 2
+...
+Условие 99
+Условие 100
+&lt;/textarea&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Методы scroll, scrollTo, scrollBy</t>
+  </si>
+  <si>
+    <t>Есть три основных метода, которые позволяют программно управлять полосой прокрутки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">При использовании с объектом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> они позволяют управлять прокруткой всего документа,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>а с DOM-элементами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — регулировать прокрутку содержимого элемента</t>
+    </r>
+  </si>
+  <si>
+    <t>Методы поддерживают два типа синтаксиса: 
+scrollTo(x-coord, y-coord) и scrollTo(options)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x-coord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — координаты пикселя по горизонтальной оси документа или элемента,
+который надо отобразить вверху слева.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y-coord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — координаты пикселя по вертикальной оси документа или элемента, который надо отобразить вверху слева.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — объект с тремя возможными параметрами:
+a. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — то же, что и y-coord;
+b. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — то же, что и x-coord;
+c. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — строка, содержащая либо smooth, instant, либо auto (по умолчанию
+— auto).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">window.scrollTo(0, 1000)
+// Этот код меняет поведение прокрутки на smooth
+window.scrollTo({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 1000,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 'smooth',
+})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>scrollTo(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x-coord, y-coord)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+scrollTo(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>scroll = scrollTo</t>
+  </si>
+  <si>
+    <t>scrollBy</t>
+  </si>
+  <si>
+    <t>Отличие scrollBy в том, что он использует относительные координаты, в то время как scroll и scrollTo используют абсолютные.</t>
+  </si>
+  <si>
+    <t>см пример использование выше</t>
+  </si>
+  <si>
+    <t>Последовательно вызывая scrollBy с одними и теми же параметрами, мы будем менять положение полосы прокрутки на значение, переданное в параметрах. В случае scroll и scrollTo изменения произойдут лишь при первом вызове.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOM-интерфейсы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> содержат несколько полей и методов для работы с полосой прокрутки</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE scroll DOM-Element</t>
+  </si>
+  <si>
+    <t>SELECT scroll DOM-Element</t>
+  </si>
+  <si>
+    <t>UPDATE scroll Window, DOM-Element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - DOM-Element! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Чтобы переместить полосу прокрутки в контексте DOM-элемента, нужно присвоить значения
+полям Element.scrollTop и Element.scrollLeft.</t>
+    </r>
+  </si>
+  <si>
+    <t>Метод Element.scrollIntoView</t>
+  </si>
+  <si>
+    <t>Этот метод принимает два типа параметров:</t>
+  </si>
+  <si>
+    <t>Метод Element.scrollIntoView() интерфейса Element прокручивает текущий контейнер родителя элемента так, чтобы элемент, на котором вызван scrollIntoView(), был видим пользователю.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alignToTop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — необязательный аргумент типа Boolean со следующими возможными значениями:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  a. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — верхняя граница элемента выравнивается по верхней границе видимой
+части окна прокручиваемой области. Соответствует scrollIntoViewOptions:
+{block: "start", inline: "nearest"}. Значение по умолчанию.
+  b. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — нижняя граница элемента выравнивается по нижней границе видимой
+части окна прокручиваемой области. Соответствует конфигурации
+scrollIntoViewOptions: {block: "end", inline: "nearest"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrollIntoViewOptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — необязательный аргумент типа Object со следующим набором полей:
+  a. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — определяет анимацию скролла. Необязательный параметр.
+Принимает значение auto или smooth. По умолчанию — auto.
+  b. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — вертикальное выравнивание. Необязательный параметр. Варианты
+значений: start, center, end или nearest. По умолчанию — start.
+  c. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — горизонтальное выравнивание. Необязательный параметр. Варианты
+значений: start, center, end или nearest. По умолчанию — nearest.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+&lt;style&gt;
+.big {
+background: #ccc;
+height: 300px;
+}
+.box {
+background: lightgreen;
+height: 40px;
+}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;Пример – Element.scrollIntoView()&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;button type="button"&gt;Нажми на меня&lt;/button&gt;
+&lt;div class="big"&gt;&lt;/div&gt;
+&lt;div id="box" class="box"&gt;Скрытый элемент&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+const hiddenElement = document.getElementById('box')
+const button = document.querySelector('button')
+const handleButtonClick = () =&gt; {
+hiddenElement.scrollIntoView({block: 'center', behavior: 'smooth'})
+}
+button.addEventListener('click', handleButtonClick)
+&lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,8 +2485,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +2537,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1030,10 +2601,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1044,46 +2617,136 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка 2" xfId="2" xr:uid="{A5746380-0C5B-42A9-896C-F81FD850516B}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{8BCFA195-9753-435C-B1BC-10F4F2F08605}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,6 +2759,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2376714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1838979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAC0397-B6D2-711D-9451-1632B1B307FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603500" y="1124858"/>
+          <a:ext cx="2286000" cy="1811764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333396</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1551303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDF63DB-7419-36D0-6BD1-0D7FBCB3C362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847996" y="5048250"/>
+          <a:ext cx="1933554" cy="1475103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,14 +3116,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471535A4-DB68-4724-8F5A-C34ED720D5E8}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="25"/>
+    <col min="21" max="21" width="67.7265625" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="22" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="22" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="22" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="22" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="22" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{C89B0508-3E8C-4C08-9527-487E8B11BCC1}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{502457A8-25D7-4080-ABC3-EA0B2D671B0F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{96A9B9AE-E080-45E9-ABB8-3D2AA4CDF88C}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{F6733622-40E4-41EC-8D5C-99F4437D3E6A}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{70BC4F0C-3FF9-4105-91F5-CFD9E1535B89}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{85BAC9BD-99C1-4257-B82F-1BFD3FD4E143}"/>
+    <hyperlink ref="C11" r:id="rId7" location="readme" xr:uid="{7174EF9E-33D8-462C-9308-8522A782D5F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2ADE5-9A6F-4274-9C48-F960B495367E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V13"/>
+  <dimension ref="A2:V15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,8 +3399,11 @@
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
@@ -1483,24 +3444,40 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="12"/>
     </row>
+    <row r="14" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272091B1-D8D3-4DDC-8497-7D64AEA15B13}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,19 +3544,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="290" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="290" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
@@ -1603,7 +3588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C6E77F-3AAC-4D89-89E9-D6732C0FCC44}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1731,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D81511D-3EF9-484D-9AA3-2E9CD4787E6D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1850,4 +3835,701 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BED8A13-39F1-4603-8030-04566521FB92}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="8"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:22" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="C9" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="C10" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="C11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="C12" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="C13" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="C14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="C15" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632C0A3F-CD17-4ADD-9580-AB263A251ABF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="8"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="C8" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="C19" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>